--- a/17-Análise dos Eventos para cada Cenário.xlsx
+++ b/17-Análise dos Eventos para cada Cenário.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgJ7ozNFEoPRpy9RTVvvSMMYjUL7w=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjYfafhpks1J2Yl1gbE5DseqZUkAQ=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
   <si>
     <t>Externo</t>
   </si>
@@ -121,189 +121,141 @@
     <t>x</t>
   </si>
   <si>
-    <t>Cliente envia resposta</t>
+    <t>Cliente informa cartão e senha</t>
   </si>
   <si>
     <t>x(1)</t>
   </si>
   <si>
-    <t>Vendedor informa valor do pedido e taxa de entrega</t>
+    <t>Provedor de cartões envia resposta da transação</t>
   </si>
   <si>
     <t>x(2)</t>
   </si>
   <si>
-    <t>Cliente informa cartão, senha e forma de pagamento</t>
+    <t>Vendedor solicita envio do produto a empresa de correspondências</t>
   </si>
   <si>
     <t>x(3)</t>
   </si>
   <si>
-    <t>Provedor de cartões envia resposta da transação</t>
+    <t>Empresa de correspondências informa código de rastreio</t>
   </si>
   <si>
     <t>x(4)</t>
   </si>
   <si>
-    <t>Vendedor solicita envio do produto a empresa de correspondências</t>
+    <t>Empresa de correspondências informa status entrega do pedido</t>
   </si>
   <si>
     <t>x(5)</t>
   </si>
   <si>
-    <t>Empresa de correspondências informa código de rastreio</t>
-  </si>
-  <si>
-    <t>x(6)</t>
-  </si>
-  <si>
-    <t>Empresa de correspondências envia produto</t>
-  </si>
-  <si>
-    <t>x(7)</t>
-  </si>
-  <si>
-    <t>Cliente informa resposta sobre entrega do pedido</t>
-  </si>
-  <si>
-    <t>x(8)</t>
-  </si>
-  <si>
-    <t>FA</t>
-  </si>
-  <si>
-    <t>Vendedor recusa pedido</t>
-  </si>
-  <si>
-    <t>Atender
+    <t>Atender 
 Solicitação
 de Suporte</t>
   </si>
   <si>
-    <t>Cliente faz solicitação de suporte</t>
-  </si>
-  <si>
-    <t>x(11)</t>
+    <t>Cliente faz solicitação de suporte e informa o número chamado</t>
+  </si>
+  <si>
+    <t>Cliente envia resposta do chamado e produto</t>
+  </si>
+  <si>
+    <t>x(7)</t>
   </si>
   <si>
     <t>Atendente informa prazo de solução</t>
   </si>
   <si>
-    <t>x(12)</t>
-  </si>
-  <si>
-    <t>Atendente informa o status do chamado</t>
-  </si>
-  <si>
-    <t>x(13)</t>
-  </si>
-  <si>
-    <t>Atendente devolve produto</t>
-  </si>
-  <si>
-    <t>x(14)</t>
-  </si>
-  <si>
-    <t>Atendente recusa solicitação de suporte</t>
+    <t>x(8)</t>
+  </si>
+  <si>
+    <t>Cliente faz solicitação do status do chamado</t>
+  </si>
+  <si>
+    <t>x(9)</t>
+  </si>
+  <si>
+    <t>Atendente devolve o produto consertado</t>
+  </si>
+  <si>
+    <t>x(10)</t>
   </si>
   <si>
     <t>Tratar
 Devoluções</t>
   </si>
   <si>
-    <t>Cliente solicita devolução</t>
-  </si>
-  <si>
-    <t>Atendente informa status do chamado</t>
-  </si>
-  <si>
-    <t>x(17)</t>
-  </si>
-  <si>
-    <t>Atendente devolve valor do produto</t>
-  </si>
-  <si>
-    <t>x(18)</t>
-  </si>
-  <si>
-    <t>Atendente recusa solicitação de devolução</t>
+    <t>Cliente faz solicitação de devolução e devolve o produto</t>
+  </si>
+  <si>
+    <t>Cliente faz solicitação de status de chamado</t>
+  </si>
+  <si>
+    <t>x(12)</t>
+  </si>
+  <si>
+    <t>Cliente envia recibo</t>
+  </si>
+  <si>
+    <t>x(13)</t>
   </si>
   <si>
     <t>Comprar
 Produtos</t>
   </si>
   <si>
-    <t>Gerente solicita catálogo de produtos</t>
-  </si>
-  <si>
-    <t>Fornecedor envia catálogo de produtos</t>
-  </si>
-  <si>
-    <t>x(21)</t>
-  </si>
-  <si>
-    <t>Gerente solicita produtos</t>
-  </si>
-  <si>
-    <t>x(22)</t>
+    <t>Gerente faz solicitação de produtos</t>
   </si>
   <si>
     <t>Fornecedor envia orçamento</t>
   </si>
   <si>
-    <t>x(23)</t>
-  </si>
-  <si>
-    <t>Gerente realiza pagamento via débido</t>
-  </si>
-  <si>
-    <t>x(24)</t>
-  </si>
-  <si>
-    <t>Fornecedor envia comprovante de pagamento</t>
-  </si>
-  <si>
-    <t>x(25)</t>
-  </si>
-  <si>
-    <t>Fornecedor envia produtos</t>
-  </si>
-  <si>
-    <t>x(26)</t>
+    <t>x(15)</t>
+  </si>
+  <si>
+    <t>Gerente realiza pagamento dos produtos</t>
+  </si>
+  <si>
+    <t>x(16)</t>
+  </si>
+  <si>
+    <t>Fornecedor envia comprovante de pagamento, nota fiscal e os produtos</t>
+  </si>
+  <si>
+    <t>x(17)</t>
   </si>
   <si>
     <t>Terceirizar Manutenção
 de Produtos</t>
   </si>
   <si>
-    <t>Gerente solicita serviço de manutenção</t>
-  </si>
-  <si>
-    <t>Terceiro envia orçamento</t>
-  </si>
-  <si>
-    <t>x(28)</t>
-  </si>
-  <si>
-    <t>Gerente envia resposta sobre orçamento</t>
-  </si>
-  <si>
-    <t>x(29)</t>
-  </si>
-  <si>
-    <t>Gerente realiza pagamento via débito</t>
-  </si>
-  <si>
-    <t>x(30)</t>
-  </si>
-  <si>
-    <t>Terceiro envia comprovante de pagamento</t>
-  </si>
-  <si>
-    <t>x(31)</t>
-  </si>
-  <si>
-    <t>Terceiro devolve o produto manutenido</t>
+    <t>Gerente envia produto e solicita serviço de manutenção</t>
+  </si>
+  <si>
+    <t>Terceiro envia orçamento e prazo</t>
+  </si>
+  <si>
+    <t>x(19)</t>
+  </si>
+  <si>
+    <t>Terceiro envia produto manutenido</t>
+  </si>
+  <si>
+    <t>x(20)</t>
+  </si>
+  <si>
+    <t>Gerente realiza pagamento da manutenção</t>
+  </si>
+  <si>
+    <t>x(21)</t>
+  </si>
+  <si>
+    <t>Terceiro envia comprovante de pagamento e nota fiscal</t>
+  </si>
+  <si>
+    <t>x(22)</t>
   </si>
 </sst>
 </file>
@@ -339,7 +291,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -370,14 +322,8 @@
         <bgColor rgb="FFFDE9D9"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor theme="7"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border/>
     <border>
       <left style="medium">
@@ -466,32 +412,11 @@
         <color rgb="FF000000"/>
       </right>
     </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="34">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -572,9 +497,6 @@
     <xf borderId="5" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
     <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
@@ -584,14 +506,6 @@
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -814,7 +728,7 @@
     <col customWidth="1" min="1" max="1" width="21.88"/>
     <col customWidth="1" min="2" max="2" width="3.63"/>
     <col customWidth="1" min="3" max="3" width="3.38"/>
-    <col customWidth="1" min="4" max="4" width="61.0"/>
+    <col customWidth="1" min="4" max="4" width="66.5"/>
     <col customWidth="1" min="5" max="5" width="11.25"/>
     <col customWidth="1" min="6" max="6" width="14.75"/>
     <col customWidth="1" min="7" max="7" width="10.0"/>
@@ -921,11 +835,11 @@
       <c r="D5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="15"/>
+      <c r="E5" s="15" t="s">
+        <v>19</v>
+      </c>
       <c r="F5" s="15"/>
-      <c r="G5" s="25" t="s">
-        <v>19</v>
-      </c>
+      <c r="G5" s="25"/>
       <c r="H5" s="23"/>
       <c r="I5" s="23"/>
       <c r="J5" s="24"/>
@@ -933,17 +847,17 @@
     <row r="6">
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
-      <c r="C6" s="12">
+      <c r="C6" s="20">
         <v>4.0</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="15"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="25"/>
       <c r="H6" s="23"/>
       <c r="I6" s="23"/>
       <c r="J6" s="24"/>
@@ -951,7 +865,7 @@
     <row r="7">
       <c r="A7" s="18"/>
       <c r="B7" s="19"/>
-      <c r="C7" s="20">
+      <c r="C7" s="12">
         <v>5.0</v>
       </c>
       <c r="D7" s="13" t="s">
@@ -968,3476 +882,3290 @@
     </row>
     <row r="8">
       <c r="A8" s="18"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="12">
+      <c r="B8" s="9"/>
+      <c r="C8" s="20">
         <v>6.0</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="15"/>
+      <c r="E8" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="F8" s="27"/>
-      <c r="G8" s="28" t="s">
-        <v>25</v>
-      </c>
+      <c r="G8" s="28"/>
       <c r="H8" s="16"/>
       <c r="I8" s="28"/>
       <c r="J8" s="29"/>
     </row>
     <row r="9">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
+      <c r="A9" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="C9" s="12">
         <v>7.0</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="29"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="24"/>
     </row>
     <row r="10">
       <c r="A10" s="18"/>
       <c r="B10" s="19"/>
-      <c r="C10" s="20">
+      <c r="C10" s="12">
         <v>8.0</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28" t="s">
+      <c r="E10" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="29"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="24"/>
     </row>
     <row r="11">
       <c r="A11" s="18"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="12">
+      <c r="B11" s="19"/>
+      <c r="C11" s="20">
         <v>9.0</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="29"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="31"/>
     </row>
     <row r="12">
       <c r="A12" s="18"/>
-      <c r="B12" s="30" t="s">
-        <v>32</v>
-      </c>
+      <c r="B12" s="19"/>
       <c r="C12" s="12">
         <v>10.0</v>
       </c>
       <c r="D12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="29"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="31"/>
     </row>
     <row r="13">
-      <c r="A13" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>13</v>
-      </c>
+      <c r="A13" s="18"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="20">
         <v>11.0</v>
       </c>
       <c r="D13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="23"/>
       <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="24"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="31"/>
     </row>
     <row r="14">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="C14" s="12">
         <v>12.0</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="25"/>
+        <v>37</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="23"/>
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
-      <c r="J14" s="24"/>
+      <c r="J14" s="31"/>
     </row>
     <row r="15">
-      <c r="A15" s="18"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="19"/>
-      <c r="C15" s="12">
+      <c r="C15" s="20">
         <v>13.0</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="21"/>
+        <v>38</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="F15" s="21"/>
-      <c r="G15" s="25" t="s">
-        <v>38</v>
-      </c>
+      <c r="G15" s="25"/>
       <c r="H15" s="23"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="32"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="31"/>
     </row>
     <row r="16">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20">
+      <c r="A16" s="19"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="12">
         <v>14.0</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="21"/>
+        <v>40</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>41</v>
+      </c>
       <c r="F16" s="21"/>
-      <c r="G16" s="25" t="s">
-        <v>40</v>
-      </c>
+      <c r="G16" s="25"/>
       <c r="H16" s="23"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="32"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="31"/>
     </row>
     <row r="17">
-      <c r="A17" s="18"/>
-      <c r="B17" s="9"/>
+      <c r="A17" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="C17" s="12">
         <v>15.0</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="32"/>
+        <v>43</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="31" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="18"/>
-      <c r="B18" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="12">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="20">
         <v>16.0</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="15"/>
+        <v>44</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="F18" s="21"/>
-      <c r="G18" s="25"/>
+      <c r="G18" s="23"/>
       <c r="H18" s="23"/>
-      <c r="I18" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18" s="32"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="31"/>
     </row>
     <row r="19">
-      <c r="A19" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="20">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="12">
         <v>17.0</v>
       </c>
-      <c r="D19" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="23"/>
+      <c r="D19" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="25" t="s">
+        <v>47</v>
+      </c>
       <c r="H19" s="23"/>
       <c r="I19" s="23"/>
-      <c r="J19" s="32"/>
+      <c r="J19" s="24"/>
     </row>
     <row r="20">
       <c r="A20" s="19"/>
       <c r="B20" s="19"/>
-      <c r="C20" s="12">
+      <c r="C20" s="20">
         <v>18.0</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="25" t="s">
-        <v>47</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="23"/>
       <c r="H20" s="23"/>
       <c r="I20" s="23"/>
-      <c r="J20" s="32"/>
+      <c r="J20" s="24"/>
     </row>
     <row r="21">
-      <c r="A21" s="19"/>
-      <c r="B21" s="9"/>
+      <c r="A21" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="C21" s="12">
         <v>19.0</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="15"/>
+        <v>51</v>
+      </c>
+      <c r="E21" s="21"/>
       <c r="F21" s="21"/>
-      <c r="G21" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="25"/>
       <c r="I21" s="23"/>
-      <c r="J21" s="32"/>
+      <c r="J21" s="31" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="9"/>
-      <c r="B22" s="30" t="s">
-        <v>32</v>
-      </c>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="20">
         <v>20.0</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="15"/>
+        <v>52</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="F22" s="21"/>
-      <c r="G22" s="25"/>
+      <c r="G22" s="23"/>
       <c r="H22" s="23"/>
-      <c r="I22" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="J22" s="32"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>13</v>
-      </c>
+      <c r="I22" s="23"/>
+      <c r="J22" s="31"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="12">
         <v>21.0</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="15"/>
+        <v>54</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>55</v>
+      </c>
       <c r="F23" s="15"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="23"/>
       <c r="I23" s="23"/>
-      <c r="J23" s="32" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24">
+      <c r="J23" s="24"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="19"/>
       <c r="B24" s="19"/>
-      <c r="C24" s="12">
+      <c r="C24" s="20">
         <v>22.0</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="23"/>
+        <v>56</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="25" t="s">
+        <v>57</v>
+      </c>
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
-      <c r="J24" s="32"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="20">
+      <c r="J24" s="24"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="12">
         <v>23.0</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="15"/>
+        <v>58</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>59</v>
+      </c>
       <c r="F25" s="15"/>
-      <c r="G25" s="25" t="s">
-        <v>56</v>
-      </c>
+      <c r="G25" s="25"/>
       <c r="H25" s="23"/>
       <c r="I25" s="23"/>
       <c r="J25" s="24"/>
     </row>
-    <row r="26">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="12">
-        <v>24.0</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" s="15"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="24"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="12">
-        <v>25.0</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="24"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20">
-        <v>26.0</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="F28" s="15"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="24"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="12">
-        <v>27.0</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F29" s="15"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="24"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="12">
-        <v>28.0</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="32" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="19"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="20">
-        <v>29.0</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="32"/>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="D26" s="33"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="D27" s="33"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="D28" s="33"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="D29" s="33"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="D30" s="33"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="D31" s="33"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="19"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="12">
-        <v>30.0</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="24"/>
+      <c r="D32" s="33"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="19"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="12">
-        <v>31.0</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="24"/>
+      <c r="D33" s="33"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="19"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="20">
-        <v>32.0</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F34" s="15"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="24"/>
+      <c r="D34" s="33"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="9"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="12">
-        <v>33.0</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F35" s="15"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="24"/>
+      <c r="D35" s="33"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="D36" s="38"/>
+      <c r="D36" s="33"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="D37" s="38"/>
+      <c r="D37" s="33"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="D38" s="38"/>
+      <c r="D38" s="33"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="D39" s="38"/>
+      <c r="D39" s="33"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="D40" s="38"/>
+      <c r="D40" s="33"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="D41" s="38"/>
+      <c r="D41" s="33"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="D42" s="38"/>
+      <c r="D42" s="33"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="D43" s="38"/>
+      <c r="D43" s="33"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="D44" s="38"/>
+      <c r="D44" s="33"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="D45" s="38"/>
+      <c r="D45" s="33"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="D46" s="38"/>
+      <c r="D46" s="33"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="D47" s="38"/>
+      <c r="D47" s="33"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="D48" s="38"/>
+      <c r="D48" s="33"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="D49" s="38"/>
+      <c r="D49" s="33"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="D50" s="38"/>
+      <c r="D50" s="33"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="D51" s="38"/>
+      <c r="D51" s="33"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="D52" s="38"/>
+      <c r="D52" s="33"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="D53" s="38"/>
+      <c r="D53" s="33"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="D54" s="38"/>
+      <c r="D54" s="33"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="D55" s="38"/>
+      <c r="D55" s="33"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="D56" s="38"/>
+      <c r="D56" s="33"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="D57" s="38"/>
+      <c r="D57" s="33"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="D58" s="38"/>
+      <c r="D58" s="33"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="D59" s="38"/>
+      <c r="D59" s="33"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="D60" s="38"/>
+      <c r="D60" s="33"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="D61" s="38"/>
+      <c r="D61" s="33"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="D62" s="38"/>
+      <c r="D62" s="33"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="D63" s="38"/>
+      <c r="D63" s="33"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="D64" s="38"/>
+      <c r="D64" s="33"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="D65" s="38"/>
+      <c r="D65" s="33"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="D66" s="38"/>
+      <c r="D66" s="33"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="D67" s="38"/>
+      <c r="D67" s="33"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="D68" s="38"/>
+      <c r="D68" s="33"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="D69" s="38"/>
+      <c r="D69" s="33"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="D70" s="38"/>
+      <c r="D70" s="33"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="D71" s="38"/>
+      <c r="D71" s="33"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="D72" s="38"/>
+      <c r="D72" s="33"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="D73" s="38"/>
+      <c r="D73" s="33"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="D74" s="38"/>
+      <c r="D74" s="33"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="D75" s="38"/>
+      <c r="D75" s="33"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="D76" s="38"/>
+      <c r="D76" s="33"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="D77" s="38"/>
+      <c r="D77" s="33"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="D78" s="38"/>
+      <c r="D78" s="33"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="D79" s="38"/>
+      <c r="D79" s="33"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="D80" s="38"/>
+      <c r="D80" s="33"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="D81" s="38"/>
+      <c r="D81" s="33"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="D82" s="38"/>
+      <c r="D82" s="33"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="D83" s="38"/>
+      <c r="D83" s="33"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="D84" s="38"/>
+      <c r="D84" s="33"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="D85" s="38"/>
+      <c r="D85" s="33"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="D86" s="38"/>
+      <c r="D86" s="33"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="D87" s="38"/>
+      <c r="D87" s="33"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="D88" s="38"/>
+      <c r="D88" s="33"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="D89" s="38"/>
+      <c r="D89" s="33"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="D90" s="38"/>
+      <c r="D90" s="33"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="D91" s="38"/>
+      <c r="D91" s="33"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="D92" s="38"/>
+      <c r="D92" s="33"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="D93" s="38"/>
+      <c r="D93" s="33"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="D94" s="38"/>
+      <c r="D94" s="33"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="D95" s="38"/>
+      <c r="D95" s="33"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="D96" s="38"/>
+      <c r="D96" s="33"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="D97" s="38"/>
+      <c r="D97" s="33"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="D98" s="38"/>
+      <c r="D98" s="33"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="D99" s="38"/>
+      <c r="D99" s="33"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="D100" s="38"/>
+      <c r="D100" s="33"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="D101" s="38"/>
+      <c r="D101" s="33"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="D102" s="38"/>
+      <c r="D102" s="33"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="D103" s="38"/>
+      <c r="D103" s="33"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="D104" s="38"/>
+      <c r="D104" s="33"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="D105" s="38"/>
+      <c r="D105" s="33"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="D106" s="38"/>
+      <c r="D106" s="33"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="D107" s="38"/>
+      <c r="D107" s="33"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="D108" s="38"/>
+      <c r="D108" s="33"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="D109" s="38"/>
+      <c r="D109" s="33"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="D110" s="38"/>
+      <c r="D110" s="33"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="D111" s="38"/>
+      <c r="D111" s="33"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="D112" s="38"/>
+      <c r="D112" s="33"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="D113" s="38"/>
+      <c r="D113" s="33"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="D114" s="38"/>
+      <c r="D114" s="33"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="D115" s="38"/>
+      <c r="D115" s="33"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="D116" s="38"/>
+      <c r="D116" s="33"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="D117" s="38"/>
+      <c r="D117" s="33"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="D118" s="38"/>
+      <c r="D118" s="33"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="D119" s="38"/>
+      <c r="D119" s="33"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="D120" s="38"/>
+      <c r="D120" s="33"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="D121" s="38"/>
+      <c r="D121" s="33"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="D122" s="38"/>
+      <c r="D122" s="33"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="D123" s="38"/>
+      <c r="D123" s="33"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="D124" s="38"/>
+      <c r="D124" s="33"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="D125" s="38"/>
+      <c r="D125" s="33"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="D126" s="38"/>
+      <c r="D126" s="33"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="D127" s="38"/>
+      <c r="D127" s="33"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="D128" s="38"/>
+      <c r="D128" s="33"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="D129" s="38"/>
+      <c r="D129" s="33"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="D130" s="38"/>
+      <c r="D130" s="33"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="D131" s="38"/>
+      <c r="D131" s="33"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="D132" s="38"/>
+      <c r="D132" s="33"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="D133" s="38"/>
+      <c r="D133" s="33"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="D134" s="38"/>
+      <c r="D134" s="33"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="D135" s="38"/>
+      <c r="D135" s="33"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="D136" s="38"/>
+      <c r="D136" s="33"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="D137" s="38"/>
+      <c r="D137" s="33"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="D138" s="38"/>
+      <c r="D138" s="33"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="D139" s="38"/>
+      <c r="D139" s="33"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="D140" s="38"/>
+      <c r="D140" s="33"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="D141" s="38"/>
+      <c r="D141" s="33"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="D142" s="38"/>
+      <c r="D142" s="33"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="D143" s="38"/>
+      <c r="D143" s="33"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="D144" s="38"/>
+      <c r="D144" s="33"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="D145" s="38"/>
+      <c r="D145" s="33"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="D146" s="38"/>
+      <c r="D146" s="33"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="D147" s="38"/>
+      <c r="D147" s="33"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="D148" s="38"/>
+      <c r="D148" s="33"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="D149" s="38"/>
+      <c r="D149" s="33"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="D150" s="38"/>
+      <c r="D150" s="33"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="D151" s="38"/>
+      <c r="D151" s="33"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="D152" s="38"/>
+      <c r="D152" s="33"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="D153" s="38"/>
+      <c r="D153" s="33"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="D154" s="38"/>
+      <c r="D154" s="33"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="D155" s="38"/>
+      <c r="D155" s="33"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="D156" s="38"/>
+      <c r="D156" s="33"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="D157" s="38"/>
+      <c r="D157" s="33"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="D158" s="38"/>
+      <c r="D158" s="33"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="D159" s="38"/>
+      <c r="D159" s="33"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="D160" s="38"/>
+      <c r="D160" s="33"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="D161" s="38"/>
+      <c r="D161" s="33"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="D162" s="38"/>
+      <c r="D162" s="33"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="D163" s="38"/>
+      <c r="D163" s="33"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="D164" s="38"/>
+      <c r="D164" s="33"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="D165" s="38"/>
+      <c r="D165" s="33"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="D166" s="38"/>
+      <c r="D166" s="33"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="D167" s="38"/>
+      <c r="D167" s="33"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="D168" s="38"/>
+      <c r="D168" s="33"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="D169" s="38"/>
+      <c r="D169" s="33"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="D170" s="38"/>
+      <c r="D170" s="33"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="D171" s="38"/>
+      <c r="D171" s="33"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="D172" s="38"/>
+      <c r="D172" s="33"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="D173" s="38"/>
+      <c r="D173" s="33"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="D174" s="38"/>
+      <c r="D174" s="33"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="D175" s="38"/>
+      <c r="D175" s="33"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="D176" s="38"/>
+      <c r="D176" s="33"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="D177" s="38"/>
+      <c r="D177" s="33"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="D178" s="38"/>
+      <c r="D178" s="33"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="D179" s="38"/>
+      <c r="D179" s="33"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="D180" s="38"/>
+      <c r="D180" s="33"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="D181" s="38"/>
+      <c r="D181" s="33"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="D182" s="38"/>
+      <c r="D182" s="33"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="D183" s="38"/>
+      <c r="D183" s="33"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="D184" s="38"/>
+      <c r="D184" s="33"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="D185" s="38"/>
+      <c r="D185" s="33"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="D186" s="38"/>
+      <c r="D186" s="33"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="D187" s="38"/>
+      <c r="D187" s="33"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="D188" s="38"/>
+      <c r="D188" s="33"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="D189" s="38"/>
+      <c r="D189" s="33"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="D190" s="38"/>
+      <c r="D190" s="33"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="D191" s="38"/>
+      <c r="D191" s="33"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="D192" s="38"/>
+      <c r="D192" s="33"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="D193" s="38"/>
+      <c r="D193" s="33"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="D194" s="38"/>
+      <c r="D194" s="33"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="D195" s="38"/>
+      <c r="D195" s="33"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="D196" s="38"/>
+      <c r="D196" s="33"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="D197" s="38"/>
+      <c r="D197" s="33"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="D198" s="38"/>
+      <c r="D198" s="33"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="D199" s="38"/>
+      <c r="D199" s="33"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="D200" s="38"/>
+      <c r="D200" s="33"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="D201" s="38"/>
+      <c r="D201" s="33"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="D202" s="38"/>
+      <c r="D202" s="33"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="D203" s="38"/>
+      <c r="D203" s="33"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="D204" s="38"/>
+      <c r="D204" s="33"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="D205" s="38"/>
+      <c r="D205" s="33"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="D206" s="38"/>
+      <c r="D206" s="33"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="D207" s="38"/>
+      <c r="D207" s="33"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="D208" s="38"/>
+      <c r="D208" s="33"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="D209" s="38"/>
+      <c r="D209" s="33"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="D210" s="38"/>
+      <c r="D210" s="33"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="D211" s="38"/>
+      <c r="D211" s="33"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="D212" s="38"/>
+      <c r="D212" s="33"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="D213" s="38"/>
+      <c r="D213" s="33"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="D214" s="38"/>
+      <c r="D214" s="33"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="D215" s="38"/>
+      <c r="D215" s="33"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="D216" s="38"/>
+      <c r="D216" s="33"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="D217" s="38"/>
+      <c r="D217" s="33"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="D218" s="38"/>
+      <c r="D218" s="33"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="D219" s="38"/>
+      <c r="D219" s="33"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="D220" s="38"/>
+      <c r="D220" s="33"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="D221" s="38"/>
+      <c r="D221" s="33"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="D222" s="38"/>
+      <c r="D222" s="33"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="D223" s="38"/>
+      <c r="D223" s="33"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="D224" s="38"/>
+      <c r="D224" s="33"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="D225" s="38"/>
+      <c r="D225" s="33"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="D226" s="38"/>
+      <c r="D226" s="33"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="D227" s="38"/>
+      <c r="D227" s="33"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="D228" s="38"/>
+      <c r="D228" s="33"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="D229" s="38"/>
+      <c r="D229" s="33"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="D230" s="38"/>
+      <c r="D230" s="33"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="D231" s="38"/>
+      <c r="D231" s="33"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="D232" s="38"/>
+      <c r="D232" s="33"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="D233" s="38"/>
+      <c r="D233" s="33"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="D234" s="38"/>
+      <c r="D234" s="33"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="D235" s="38"/>
+      <c r="D235" s="33"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="D236" s="38"/>
+      <c r="D236" s="33"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="D237" s="38"/>
+      <c r="D237" s="33"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="D238" s="38"/>
+      <c r="D238" s="33"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="D239" s="38"/>
+      <c r="D239" s="33"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="D240" s="38"/>
+      <c r="D240" s="33"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="D241" s="38"/>
+      <c r="D241" s="33"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="D242" s="38"/>
+      <c r="D242" s="33"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="D243" s="38"/>
+      <c r="D243" s="33"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="D244" s="38"/>
+      <c r="D244" s="33"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="D245" s="38"/>
+      <c r="D245" s="33"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="D246" s="38"/>
+      <c r="D246" s="33"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="D247" s="38"/>
+      <c r="D247" s="33"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="D248" s="38"/>
+      <c r="D248" s="33"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="D249" s="38"/>
+      <c r="D249" s="33"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="D250" s="38"/>
+      <c r="D250" s="33"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="D251" s="38"/>
+      <c r="D251" s="33"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="D252" s="38"/>
+      <c r="D252" s="33"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="D253" s="38"/>
+      <c r="D253" s="33"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="D254" s="38"/>
+      <c r="D254" s="33"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="D255" s="38"/>
+      <c r="D255" s="33"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="D256" s="38"/>
+      <c r="D256" s="33"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="D257" s="38"/>
+      <c r="D257" s="33"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="D258" s="38"/>
+      <c r="D258" s="33"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="D259" s="38"/>
+      <c r="D259" s="33"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="D260" s="38"/>
+      <c r="D260" s="33"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="D261" s="38"/>
+      <c r="D261" s="33"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="D262" s="38"/>
+      <c r="D262" s="33"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="D263" s="38"/>
+      <c r="D263" s="33"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="D264" s="38"/>
+      <c r="D264" s="33"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="D265" s="38"/>
+      <c r="D265" s="33"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="D266" s="38"/>
+      <c r="D266" s="33"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="D267" s="38"/>
+      <c r="D267" s="33"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="D268" s="38"/>
+      <c r="D268" s="33"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="D269" s="38"/>
+      <c r="D269" s="33"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="D270" s="38"/>
+      <c r="D270" s="33"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="D271" s="38"/>
+      <c r="D271" s="33"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="D272" s="38"/>
+      <c r="D272" s="33"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="D273" s="38"/>
+      <c r="D273" s="33"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="D274" s="38"/>
+      <c r="D274" s="33"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="D275" s="38"/>
+      <c r="D275" s="33"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="D276" s="38"/>
+      <c r="D276" s="33"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="D277" s="38"/>
+      <c r="D277" s="33"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="D278" s="38"/>
+      <c r="D278" s="33"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="D279" s="38"/>
+      <c r="D279" s="33"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="D280" s="38"/>
+      <c r="D280" s="33"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="D281" s="38"/>
+      <c r="D281" s="33"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="D282" s="38"/>
+      <c r="D282" s="33"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="D283" s="38"/>
+      <c r="D283" s="33"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="D284" s="38"/>
+      <c r="D284" s="33"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="D285" s="38"/>
+      <c r="D285" s="33"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="D286" s="38"/>
+      <c r="D286" s="33"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="D287" s="38"/>
+      <c r="D287" s="33"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="D288" s="38"/>
+      <c r="D288" s="33"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="D289" s="38"/>
+      <c r="D289" s="33"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="D290" s="38"/>
+      <c r="D290" s="33"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="D291" s="38"/>
+      <c r="D291" s="33"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="D292" s="38"/>
+      <c r="D292" s="33"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="D293" s="38"/>
+      <c r="D293" s="33"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="D294" s="38"/>
+      <c r="D294" s="33"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="D295" s="38"/>
+      <c r="D295" s="33"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="D296" s="38"/>
+      <c r="D296" s="33"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="D297" s="38"/>
+      <c r="D297" s="33"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="D298" s="38"/>
+      <c r="D298" s="33"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="D299" s="38"/>
+      <c r="D299" s="33"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="D300" s="38"/>
+      <c r="D300" s="33"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="D301" s="38"/>
+      <c r="D301" s="33"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="D302" s="38"/>
+      <c r="D302" s="33"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="D303" s="38"/>
+      <c r="D303" s="33"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="D304" s="38"/>
+      <c r="D304" s="33"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="D305" s="38"/>
+      <c r="D305" s="33"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="D306" s="38"/>
+      <c r="D306" s="33"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="D307" s="38"/>
+      <c r="D307" s="33"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="D308" s="38"/>
+      <c r="D308" s="33"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="D309" s="38"/>
+      <c r="D309" s="33"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="D310" s="38"/>
+      <c r="D310" s="33"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="D311" s="38"/>
+      <c r="D311" s="33"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="D312" s="38"/>
+      <c r="D312" s="33"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="D313" s="38"/>
+      <c r="D313" s="33"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="D314" s="38"/>
+      <c r="D314" s="33"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="D315" s="38"/>
+      <c r="D315" s="33"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="D316" s="38"/>
+      <c r="D316" s="33"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="D317" s="38"/>
+      <c r="D317" s="33"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="D318" s="38"/>
+      <c r="D318" s="33"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="D319" s="38"/>
+      <c r="D319" s="33"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="D320" s="38"/>
+      <c r="D320" s="33"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="D321" s="38"/>
+      <c r="D321" s="33"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="D322" s="38"/>
+      <c r="D322" s="33"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="D323" s="38"/>
+      <c r="D323" s="33"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="D324" s="38"/>
+      <c r="D324" s="33"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="D325" s="38"/>
+      <c r="D325" s="33"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="D326" s="38"/>
+      <c r="D326" s="33"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="D327" s="38"/>
+      <c r="D327" s="33"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="D328" s="38"/>
+      <c r="D328" s="33"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="D329" s="38"/>
+      <c r="D329" s="33"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="D330" s="38"/>
+      <c r="D330" s="33"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="D331" s="38"/>
+      <c r="D331" s="33"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="D332" s="38"/>
+      <c r="D332" s="33"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="D333" s="38"/>
+      <c r="D333" s="33"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="D334" s="38"/>
+      <c r="D334" s="33"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="D335" s="38"/>
+      <c r="D335" s="33"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="D336" s="38"/>
+      <c r="D336" s="33"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="D337" s="38"/>
+      <c r="D337" s="33"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="D338" s="38"/>
+      <c r="D338" s="33"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="D339" s="38"/>
+      <c r="D339" s="33"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="D340" s="38"/>
+      <c r="D340" s="33"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="D341" s="38"/>
+      <c r="D341" s="33"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="D342" s="38"/>
+      <c r="D342" s="33"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="D343" s="38"/>
+      <c r="D343" s="33"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="D344" s="38"/>
+      <c r="D344" s="33"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="D345" s="38"/>
+      <c r="D345" s="33"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="D346" s="38"/>
+      <c r="D346" s="33"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="D347" s="38"/>
+      <c r="D347" s="33"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="D348" s="38"/>
+      <c r="D348" s="33"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="D349" s="38"/>
+      <c r="D349" s="33"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="D350" s="38"/>
+      <c r="D350" s="33"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="D351" s="38"/>
+      <c r="D351" s="33"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="D352" s="38"/>
+      <c r="D352" s="33"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="D353" s="38"/>
+      <c r="D353" s="33"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="D354" s="38"/>
+      <c r="D354" s="33"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="D355" s="38"/>
+      <c r="D355" s="33"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="D356" s="38"/>
+      <c r="D356" s="33"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="D357" s="38"/>
+      <c r="D357" s="33"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="D358" s="38"/>
+      <c r="D358" s="33"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="D359" s="38"/>
+      <c r="D359" s="33"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="D360" s="38"/>
+      <c r="D360" s="33"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="D361" s="38"/>
+      <c r="D361" s="33"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="D362" s="38"/>
+      <c r="D362" s="33"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="D363" s="38"/>
+      <c r="D363" s="33"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="D364" s="38"/>
+      <c r="D364" s="33"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="D365" s="38"/>
+      <c r="D365" s="33"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="D366" s="38"/>
+      <c r="D366" s="33"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="D367" s="38"/>
+      <c r="D367" s="33"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="D368" s="38"/>
+      <c r="D368" s="33"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="D369" s="38"/>
+      <c r="D369" s="33"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="D370" s="38"/>
+      <c r="D370" s="33"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="D371" s="38"/>
+      <c r="D371" s="33"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="D372" s="38"/>
+      <c r="D372" s="33"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="D373" s="38"/>
+      <c r="D373" s="33"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="D374" s="38"/>
+      <c r="D374" s="33"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="D375" s="38"/>
+      <c r="D375" s="33"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="D376" s="38"/>
+      <c r="D376" s="33"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="D377" s="38"/>
+      <c r="D377" s="33"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="D378" s="38"/>
+      <c r="D378" s="33"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="D379" s="38"/>
+      <c r="D379" s="33"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="D380" s="38"/>
+      <c r="D380" s="33"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="D381" s="38"/>
+      <c r="D381" s="33"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="D382" s="38"/>
+      <c r="D382" s="33"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="D383" s="38"/>
+      <c r="D383" s="33"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="D384" s="38"/>
+      <c r="D384" s="33"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="D385" s="38"/>
+      <c r="D385" s="33"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="D386" s="38"/>
+      <c r="D386" s="33"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="D387" s="38"/>
+      <c r="D387" s="33"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="D388" s="38"/>
+      <c r="D388" s="33"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="D389" s="38"/>
+      <c r="D389" s="33"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="D390" s="38"/>
+      <c r="D390" s="33"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="D391" s="38"/>
+      <c r="D391" s="33"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="D392" s="38"/>
+      <c r="D392" s="33"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="D393" s="38"/>
+      <c r="D393" s="33"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="D394" s="38"/>
+      <c r="D394" s="33"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="D395" s="38"/>
+      <c r="D395" s="33"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="D396" s="38"/>
+      <c r="D396" s="33"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="D397" s="38"/>
+      <c r="D397" s="33"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="D398" s="38"/>
+      <c r="D398" s="33"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="D399" s="38"/>
+      <c r="D399" s="33"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="D400" s="38"/>
+      <c r="D400" s="33"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="D401" s="38"/>
+      <c r="D401" s="33"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="D402" s="38"/>
+      <c r="D402" s="33"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="D403" s="38"/>
+      <c r="D403" s="33"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="D404" s="38"/>
+      <c r="D404" s="33"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="D405" s="38"/>
+      <c r="D405" s="33"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="D406" s="38"/>
+      <c r="D406" s="33"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="D407" s="38"/>
+      <c r="D407" s="33"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="D408" s="38"/>
+      <c r="D408" s="33"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="D409" s="38"/>
+      <c r="D409" s="33"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="D410" s="38"/>
+      <c r="D410" s="33"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="D411" s="38"/>
+      <c r="D411" s="33"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="D412" s="38"/>
+      <c r="D412" s="33"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="D413" s="38"/>
+      <c r="D413" s="33"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="D414" s="38"/>
+      <c r="D414" s="33"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="D415" s="38"/>
+      <c r="D415" s="33"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="D416" s="38"/>
+      <c r="D416" s="33"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="D417" s="38"/>
+      <c r="D417" s="33"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="D418" s="38"/>
+      <c r="D418" s="33"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="D419" s="38"/>
+      <c r="D419" s="33"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="D420" s="38"/>
+      <c r="D420" s="33"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="D421" s="38"/>
+      <c r="D421" s="33"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="D422" s="38"/>
+      <c r="D422" s="33"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="D423" s="38"/>
+      <c r="D423" s="33"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="D424" s="38"/>
+      <c r="D424" s="33"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="D425" s="38"/>
+      <c r="D425" s="33"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="D426" s="38"/>
+      <c r="D426" s="33"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="D427" s="38"/>
+      <c r="D427" s="33"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="D428" s="38"/>
+      <c r="D428" s="33"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="D429" s="38"/>
+      <c r="D429" s="33"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="D430" s="38"/>
+      <c r="D430" s="33"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="D431" s="38"/>
+      <c r="D431" s="33"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="D432" s="38"/>
+      <c r="D432" s="33"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="D433" s="38"/>
+      <c r="D433" s="33"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="D434" s="38"/>
+      <c r="D434" s="33"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="D435" s="38"/>
+      <c r="D435" s="33"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="D436" s="38"/>
+      <c r="D436" s="33"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="D437" s="38"/>
+      <c r="D437" s="33"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="D438" s="38"/>
+      <c r="D438" s="33"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="D439" s="38"/>
+      <c r="D439" s="33"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="D440" s="38"/>
+      <c r="D440" s="33"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="D441" s="38"/>
+      <c r="D441" s="33"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="D442" s="38"/>
+      <c r="D442" s="33"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="D443" s="38"/>
+      <c r="D443" s="33"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="D444" s="38"/>
+      <c r="D444" s="33"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="D445" s="38"/>
+      <c r="D445" s="33"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="D446" s="38"/>
+      <c r="D446" s="33"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="D447" s="38"/>
+      <c r="D447" s="33"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="D448" s="38"/>
+      <c r="D448" s="33"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="D449" s="38"/>
+      <c r="D449" s="33"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="D450" s="38"/>
+      <c r="D450" s="33"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="D451" s="38"/>
+      <c r="D451" s="33"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="D452" s="38"/>
+      <c r="D452" s="33"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="D453" s="38"/>
+      <c r="D453" s="33"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="D454" s="38"/>
+      <c r="D454" s="33"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="D455" s="38"/>
+      <c r="D455" s="33"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="D456" s="38"/>
+      <c r="D456" s="33"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="D457" s="38"/>
+      <c r="D457" s="33"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="D458" s="38"/>
+      <c r="D458" s="33"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="D459" s="38"/>
+      <c r="D459" s="33"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="D460" s="38"/>
+      <c r="D460" s="33"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="D461" s="38"/>
+      <c r="D461" s="33"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="D462" s="38"/>
+      <c r="D462" s="33"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="D463" s="38"/>
+      <c r="D463" s="33"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="D464" s="38"/>
+      <c r="D464" s="33"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="D465" s="38"/>
+      <c r="D465" s="33"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="D466" s="38"/>
+      <c r="D466" s="33"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="D467" s="38"/>
+      <c r="D467" s="33"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="D468" s="38"/>
+      <c r="D468" s="33"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="D469" s="38"/>
+      <c r="D469" s="33"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="D470" s="38"/>
+      <c r="D470" s="33"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="D471" s="38"/>
+      <c r="D471" s="33"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="D472" s="38"/>
+      <c r="D472" s="33"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="D473" s="38"/>
+      <c r="D473" s="33"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="D474" s="38"/>
+      <c r="D474" s="33"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="D475" s="38"/>
+      <c r="D475" s="33"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="D476" s="38"/>
+      <c r="D476" s="33"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="D477" s="38"/>
+      <c r="D477" s="33"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="D478" s="38"/>
+      <c r="D478" s="33"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="D479" s="38"/>
+      <c r="D479" s="33"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="D480" s="38"/>
+      <c r="D480" s="33"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="D481" s="38"/>
+      <c r="D481" s="33"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="D482" s="38"/>
+      <c r="D482" s="33"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="D483" s="38"/>
+      <c r="D483" s="33"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="D484" s="38"/>
+      <c r="D484" s="33"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="D485" s="38"/>
+      <c r="D485" s="33"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="D486" s="38"/>
+      <c r="D486" s="33"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="D487" s="38"/>
+      <c r="D487" s="33"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="D488" s="38"/>
+      <c r="D488" s="33"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="D489" s="38"/>
+      <c r="D489" s="33"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="D490" s="38"/>
+      <c r="D490" s="33"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="D491" s="38"/>
+      <c r="D491" s="33"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="D492" s="38"/>
+      <c r="D492" s="33"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="D493" s="38"/>
+      <c r="D493" s="33"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="D494" s="38"/>
+      <c r="D494" s="33"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="D495" s="38"/>
+      <c r="D495" s="33"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="D496" s="38"/>
+      <c r="D496" s="33"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="D497" s="38"/>
+      <c r="D497" s="33"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="D498" s="38"/>
+      <c r="D498" s="33"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="D499" s="38"/>
+      <c r="D499" s="33"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="D500" s="38"/>
+      <c r="D500" s="33"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="D501" s="38"/>
+      <c r="D501" s="33"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="D502" s="38"/>
+      <c r="D502" s="33"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="D503" s="38"/>
+      <c r="D503" s="33"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="D504" s="38"/>
+      <c r="D504" s="33"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="D505" s="38"/>
+      <c r="D505" s="33"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="D506" s="38"/>
+      <c r="D506" s="33"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="D507" s="38"/>
+      <c r="D507" s="33"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="D508" s="38"/>
+      <c r="D508" s="33"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="D509" s="38"/>
+      <c r="D509" s="33"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="D510" s="38"/>
+      <c r="D510" s="33"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="D511" s="38"/>
+      <c r="D511" s="33"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="D512" s="38"/>
+      <c r="D512" s="33"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="D513" s="38"/>
+      <c r="D513" s="33"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="D514" s="38"/>
+      <c r="D514" s="33"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="D515" s="38"/>
+      <c r="D515" s="33"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="D516" s="38"/>
+      <c r="D516" s="33"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="D517" s="38"/>
+      <c r="D517" s="33"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="D518" s="38"/>
+      <c r="D518" s="33"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="D519" s="38"/>
+      <c r="D519" s="33"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="D520" s="38"/>
+      <c r="D520" s="33"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="D521" s="38"/>
+      <c r="D521" s="33"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="D522" s="38"/>
+      <c r="D522" s="33"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="D523" s="38"/>
+      <c r="D523" s="33"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="D524" s="38"/>
+      <c r="D524" s="33"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="D525" s="38"/>
+      <c r="D525" s="33"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="D526" s="38"/>
+      <c r="D526" s="33"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="D527" s="38"/>
+      <c r="D527" s="33"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="D528" s="38"/>
+      <c r="D528" s="33"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="D529" s="38"/>
+      <c r="D529" s="33"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="D530" s="38"/>
+      <c r="D530" s="33"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="D531" s="38"/>
+      <c r="D531" s="33"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="D532" s="38"/>
+      <c r="D532" s="33"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="D533" s="38"/>
+      <c r="D533" s="33"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="D534" s="38"/>
+      <c r="D534" s="33"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="D535" s="38"/>
+      <c r="D535" s="33"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="D536" s="38"/>
+      <c r="D536" s="33"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="D537" s="38"/>
+      <c r="D537" s="33"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="D538" s="38"/>
+      <c r="D538" s="33"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="D539" s="38"/>
+      <c r="D539" s="33"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="D540" s="38"/>
+      <c r="D540" s="33"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="D541" s="38"/>
+      <c r="D541" s="33"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="D542" s="38"/>
+      <c r="D542" s="33"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="D543" s="38"/>
+      <c r="D543" s="33"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="D544" s="38"/>
+      <c r="D544" s="33"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="D545" s="38"/>
+      <c r="D545" s="33"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="D546" s="38"/>
+      <c r="D546" s="33"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="D547" s="38"/>
+      <c r="D547" s="33"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="D548" s="38"/>
+      <c r="D548" s="33"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="D549" s="38"/>
+      <c r="D549" s="33"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="D550" s="38"/>
+      <c r="D550" s="33"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="D551" s="38"/>
+      <c r="D551" s="33"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="D552" s="38"/>
+      <c r="D552" s="33"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="D553" s="38"/>
+      <c r="D553" s="33"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="D554" s="38"/>
+      <c r="D554" s="33"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="D555" s="38"/>
+      <c r="D555" s="33"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="D556" s="38"/>
+      <c r="D556" s="33"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="D557" s="38"/>
+      <c r="D557" s="33"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="D558" s="38"/>
+      <c r="D558" s="33"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="D559" s="38"/>
+      <c r="D559" s="33"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="D560" s="38"/>
+      <c r="D560" s="33"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="D561" s="38"/>
+      <c r="D561" s="33"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="D562" s="38"/>
+      <c r="D562" s="33"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="D563" s="38"/>
+      <c r="D563" s="33"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="D564" s="38"/>
+      <c r="D564" s="33"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="D565" s="38"/>
+      <c r="D565" s="33"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="D566" s="38"/>
+      <c r="D566" s="33"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="D567" s="38"/>
+      <c r="D567" s="33"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="D568" s="38"/>
+      <c r="D568" s="33"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="D569" s="38"/>
+      <c r="D569" s="33"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="D570" s="38"/>
+      <c r="D570" s="33"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="D571" s="38"/>
+      <c r="D571" s="33"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="D572" s="38"/>
+      <c r="D572" s="33"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="D573" s="38"/>
+      <c r="D573" s="33"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="D574" s="38"/>
+      <c r="D574" s="33"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="D575" s="38"/>
+      <c r="D575" s="33"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="D576" s="38"/>
+      <c r="D576" s="33"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="D577" s="38"/>
+      <c r="D577" s="33"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="D578" s="38"/>
+      <c r="D578" s="33"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="D579" s="38"/>
+      <c r="D579" s="33"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="D580" s="38"/>
+      <c r="D580" s="33"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="D581" s="38"/>
+      <c r="D581" s="33"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="D582" s="38"/>
+      <c r="D582" s="33"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="D583" s="38"/>
+      <c r="D583" s="33"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="D584" s="38"/>
+      <c r="D584" s="33"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="D585" s="38"/>
+      <c r="D585" s="33"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="D586" s="38"/>
+      <c r="D586" s="33"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="D587" s="38"/>
+      <c r="D587" s="33"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="D588" s="38"/>
+      <c r="D588" s="33"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="D589" s="38"/>
+      <c r="D589" s="33"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="D590" s="38"/>
+      <c r="D590" s="33"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="D591" s="38"/>
+      <c r="D591" s="33"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="D592" s="38"/>
+      <c r="D592" s="33"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="D593" s="38"/>
+      <c r="D593" s="33"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="D594" s="38"/>
+      <c r="D594" s="33"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="D595" s="38"/>
+      <c r="D595" s="33"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="D596" s="38"/>
+      <c r="D596" s="33"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="D597" s="38"/>
+      <c r="D597" s="33"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="D598" s="38"/>
+      <c r="D598" s="33"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="D599" s="38"/>
+      <c r="D599" s="33"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="D600" s="38"/>
+      <c r="D600" s="33"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="D601" s="38"/>
+      <c r="D601" s="33"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="D602" s="38"/>
+      <c r="D602" s="33"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="D603" s="38"/>
+      <c r="D603" s="33"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="D604" s="38"/>
+      <c r="D604" s="33"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="D605" s="38"/>
+      <c r="D605" s="33"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="D606" s="38"/>
+      <c r="D606" s="33"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="D607" s="38"/>
+      <c r="D607" s="33"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="D608" s="38"/>
+      <c r="D608" s="33"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="D609" s="38"/>
+      <c r="D609" s="33"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="D610" s="38"/>
+      <c r="D610" s="33"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="D611" s="38"/>
+      <c r="D611" s="33"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="D612" s="38"/>
+      <c r="D612" s="33"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="D613" s="38"/>
+      <c r="D613" s="33"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="D614" s="38"/>
+      <c r="D614" s="33"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="D615" s="38"/>
+      <c r="D615" s="33"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="D616" s="38"/>
+      <c r="D616" s="33"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="D617" s="38"/>
+      <c r="D617" s="33"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="D618" s="38"/>
+      <c r="D618" s="33"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="D619" s="38"/>
+      <c r="D619" s="33"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="D620" s="38"/>
+      <c r="D620" s="33"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="D621" s="38"/>
+      <c r="D621" s="33"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="D622" s="38"/>
+      <c r="D622" s="33"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="D623" s="38"/>
+      <c r="D623" s="33"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="D624" s="38"/>
+      <c r="D624" s="33"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="D625" s="38"/>
+      <c r="D625" s="33"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="D626" s="38"/>
+      <c r="D626" s="33"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="D627" s="38"/>
+      <c r="D627" s="33"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="D628" s="38"/>
+      <c r="D628" s="33"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="D629" s="38"/>
+      <c r="D629" s="33"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="D630" s="38"/>
+      <c r="D630" s="33"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="D631" s="38"/>
+      <c r="D631" s="33"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="D632" s="38"/>
+      <c r="D632" s="33"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="D633" s="38"/>
+      <c r="D633" s="33"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="D634" s="38"/>
+      <c r="D634" s="33"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="D635" s="38"/>
+      <c r="D635" s="33"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="D636" s="38"/>
+      <c r="D636" s="33"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="D637" s="38"/>
+      <c r="D637" s="33"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="D638" s="38"/>
+      <c r="D638" s="33"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="D639" s="38"/>
+      <c r="D639" s="33"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="D640" s="38"/>
+      <c r="D640" s="33"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="D641" s="38"/>
+      <c r="D641" s="33"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="D642" s="38"/>
+      <c r="D642" s="33"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="D643" s="38"/>
+      <c r="D643" s="33"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="D644" s="38"/>
+      <c r="D644" s="33"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="D645" s="38"/>
+      <c r="D645" s="33"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="D646" s="38"/>
+      <c r="D646" s="33"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="D647" s="38"/>
+      <c r="D647" s="33"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="D648" s="38"/>
+      <c r="D648" s="33"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="D649" s="38"/>
+      <c r="D649" s="33"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="D650" s="38"/>
+      <c r="D650" s="33"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="D651" s="38"/>
+      <c r="D651" s="33"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="D652" s="38"/>
+      <c r="D652" s="33"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="D653" s="38"/>
+      <c r="D653" s="33"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="D654" s="38"/>
+      <c r="D654" s="33"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="D655" s="38"/>
+      <c r="D655" s="33"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="D656" s="38"/>
+      <c r="D656" s="33"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="D657" s="38"/>
+      <c r="D657" s="33"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="D658" s="38"/>
+      <c r="D658" s="33"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="D659" s="38"/>
+      <c r="D659" s="33"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="D660" s="38"/>
+      <c r="D660" s="33"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="D661" s="38"/>
+      <c r="D661" s="33"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="D662" s="38"/>
+      <c r="D662" s="33"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="D663" s="38"/>
+      <c r="D663" s="33"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="D664" s="38"/>
+      <c r="D664" s="33"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="D665" s="38"/>
+      <c r="D665" s="33"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="D666" s="38"/>
+      <c r="D666" s="33"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="D667" s="38"/>
+      <c r="D667" s="33"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="D668" s="38"/>
+      <c r="D668" s="33"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="D669" s="38"/>
+      <c r="D669" s="33"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="D670" s="38"/>
+      <c r="D670" s="33"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="D671" s="38"/>
+      <c r="D671" s="33"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="D672" s="38"/>
+      <c r="D672" s="33"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="D673" s="38"/>
+      <c r="D673" s="33"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="D674" s="38"/>
+      <c r="D674" s="33"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="D675" s="38"/>
+      <c r="D675" s="33"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="D676" s="38"/>
+      <c r="D676" s="33"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="D677" s="38"/>
+      <c r="D677" s="33"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="D678" s="38"/>
+      <c r="D678" s="33"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="D679" s="38"/>
+      <c r="D679" s="33"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="D680" s="38"/>
+      <c r="D680" s="33"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="D681" s="38"/>
+      <c r="D681" s="33"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="D682" s="38"/>
+      <c r="D682" s="33"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="D683" s="38"/>
+      <c r="D683" s="33"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="D684" s="38"/>
+      <c r="D684" s="33"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="D685" s="38"/>
+      <c r="D685" s="33"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="D686" s="38"/>
+      <c r="D686" s="33"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="D687" s="38"/>
+      <c r="D687" s="33"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="D688" s="38"/>
+      <c r="D688" s="33"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="D689" s="38"/>
+      <c r="D689" s="33"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="D690" s="38"/>
+      <c r="D690" s="33"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="D691" s="38"/>
+      <c r="D691" s="33"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="D692" s="38"/>
+      <c r="D692" s="33"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="D693" s="38"/>
+      <c r="D693" s="33"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="D694" s="38"/>
+      <c r="D694" s="33"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="D695" s="38"/>
+      <c r="D695" s="33"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="D696" s="38"/>
+      <c r="D696" s="33"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="D697" s="38"/>
+      <c r="D697" s="33"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="D698" s="38"/>
+      <c r="D698" s="33"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="D699" s="38"/>
+      <c r="D699" s="33"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="D700" s="38"/>
+      <c r="D700" s="33"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="D701" s="38"/>
+      <c r="D701" s="33"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="D702" s="38"/>
+      <c r="D702" s="33"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="D703" s="38"/>
+      <c r="D703" s="33"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="D704" s="38"/>
+      <c r="D704" s="33"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="D705" s="38"/>
+      <c r="D705" s="33"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="D706" s="38"/>
+      <c r="D706" s="33"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="D707" s="38"/>
+      <c r="D707" s="33"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="D708" s="38"/>
+      <c r="D708" s="33"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="D709" s="38"/>
+      <c r="D709" s="33"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="D710" s="38"/>
+      <c r="D710" s="33"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="D711" s="38"/>
+      <c r="D711" s="33"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="D712" s="38"/>
+      <c r="D712" s="33"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="D713" s="38"/>
+      <c r="D713" s="33"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="D714" s="38"/>
+      <c r="D714" s="33"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="D715" s="38"/>
+      <c r="D715" s="33"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="D716" s="38"/>
+      <c r="D716" s="33"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="D717" s="38"/>
+      <c r="D717" s="33"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="D718" s="38"/>
+      <c r="D718" s="33"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="D719" s="38"/>
+      <c r="D719" s="33"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="D720" s="38"/>
+      <c r="D720" s="33"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="D721" s="38"/>
+      <c r="D721" s="33"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="D722" s="38"/>
+      <c r="D722" s="33"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="D723" s="38"/>
+      <c r="D723" s="33"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="D724" s="38"/>
+      <c r="D724" s="33"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="D725" s="38"/>
+      <c r="D725" s="33"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="D726" s="38"/>
+      <c r="D726" s="33"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="D727" s="38"/>
+      <c r="D727" s="33"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="D728" s="38"/>
+      <c r="D728" s="33"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="D729" s="38"/>
+      <c r="D729" s="33"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="D730" s="38"/>
+      <c r="D730" s="33"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="D731" s="38"/>
+      <c r="D731" s="33"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="D732" s="38"/>
+      <c r="D732" s="33"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="D733" s="38"/>
+      <c r="D733" s="33"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="D734" s="38"/>
+      <c r="D734" s="33"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="D735" s="38"/>
+      <c r="D735" s="33"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="D736" s="38"/>
+      <c r="D736" s="33"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="D737" s="38"/>
+      <c r="D737" s="33"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="D738" s="38"/>
+      <c r="D738" s="33"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="D739" s="38"/>
+      <c r="D739" s="33"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="D740" s="38"/>
+      <c r="D740" s="33"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="D741" s="38"/>
+      <c r="D741" s="33"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="D742" s="38"/>
+      <c r="D742" s="33"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="D743" s="38"/>
+      <c r="D743" s="33"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="D744" s="38"/>
+      <c r="D744" s="33"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="D745" s="38"/>
+      <c r="D745" s="33"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="D746" s="38"/>
+      <c r="D746" s="33"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="D747" s="38"/>
+      <c r="D747" s="33"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="D748" s="38"/>
+      <c r="D748" s="33"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="D749" s="38"/>
+      <c r="D749" s="33"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="D750" s="38"/>
+      <c r="D750" s="33"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="D751" s="38"/>
+      <c r="D751" s="33"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="D752" s="38"/>
+      <c r="D752" s="33"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="D753" s="38"/>
+      <c r="D753" s="33"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="D754" s="38"/>
+      <c r="D754" s="33"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="D755" s="38"/>
+      <c r="D755" s="33"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="D756" s="38"/>
+      <c r="D756" s="33"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="D757" s="38"/>
+      <c r="D757" s="33"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="D758" s="38"/>
+      <c r="D758" s="33"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="D759" s="38"/>
+      <c r="D759" s="33"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="D760" s="38"/>
+      <c r="D760" s="33"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="D761" s="38"/>
+      <c r="D761" s="33"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="D762" s="38"/>
+      <c r="D762" s="33"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="D763" s="38"/>
+      <c r="D763" s="33"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="D764" s="38"/>
+      <c r="D764" s="33"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="D765" s="38"/>
+      <c r="D765" s="33"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="D766" s="38"/>
+      <c r="D766" s="33"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="D767" s="38"/>
+      <c r="D767" s="33"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="D768" s="38"/>
+      <c r="D768" s="33"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="D769" s="38"/>
+      <c r="D769" s="33"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="D770" s="38"/>
+      <c r="D770" s="33"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="D771" s="38"/>
+      <c r="D771" s="33"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="D772" s="38"/>
+      <c r="D772" s="33"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="D773" s="38"/>
+      <c r="D773" s="33"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="D774" s="38"/>
+      <c r="D774" s="33"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="D775" s="38"/>
+      <c r="D775" s="33"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="D776" s="38"/>
+      <c r="D776" s="33"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="D777" s="38"/>
+      <c r="D777" s="33"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="D778" s="38"/>
+      <c r="D778" s="33"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="D779" s="38"/>
+      <c r="D779" s="33"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="D780" s="38"/>
+      <c r="D780" s="33"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="D781" s="38"/>
+      <c r="D781" s="33"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="D782" s="38"/>
+      <c r="D782" s="33"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="D783" s="38"/>
+      <c r="D783" s="33"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="D784" s="38"/>
+      <c r="D784" s="33"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="D785" s="38"/>
+      <c r="D785" s="33"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="D786" s="38"/>
+      <c r="D786" s="33"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="D787" s="38"/>
+      <c r="D787" s="33"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="D788" s="38"/>
+      <c r="D788" s="33"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="D789" s="38"/>
+      <c r="D789" s="33"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="D790" s="38"/>
+      <c r="D790" s="33"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="D791" s="38"/>
+      <c r="D791" s="33"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="D792" s="38"/>
+      <c r="D792" s="33"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="D793" s="38"/>
+      <c r="D793" s="33"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="D794" s="38"/>
+      <c r="D794" s="33"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="D795" s="38"/>
+      <c r="D795" s="33"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="D796" s="38"/>
+      <c r="D796" s="33"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="D797" s="38"/>
+      <c r="D797" s="33"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="D798" s="38"/>
+      <c r="D798" s="33"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="D799" s="38"/>
+      <c r="D799" s="33"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="D800" s="38"/>
+      <c r="D800" s="33"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="D801" s="38"/>
+      <c r="D801" s="33"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="D802" s="38"/>
+      <c r="D802" s="33"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="D803" s="38"/>
+      <c r="D803" s="33"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="D804" s="38"/>
+      <c r="D804" s="33"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="D805" s="38"/>
+      <c r="D805" s="33"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="D806" s="38"/>
+      <c r="D806" s="33"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="D807" s="38"/>
+      <c r="D807" s="33"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="D808" s="38"/>
+      <c r="D808" s="33"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="D809" s="38"/>
+      <c r="D809" s="33"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="D810" s="38"/>
+      <c r="D810" s="33"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="D811" s="38"/>
+      <c r="D811" s="33"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="D812" s="38"/>
+      <c r="D812" s="33"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="D813" s="38"/>
+      <c r="D813" s="33"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="D814" s="38"/>
+      <c r="D814" s="33"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="D815" s="38"/>
+      <c r="D815" s="33"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="D816" s="38"/>
+      <c r="D816" s="33"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="D817" s="38"/>
+      <c r="D817" s="33"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="D818" s="38"/>
+      <c r="D818" s="33"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="D819" s="38"/>
+      <c r="D819" s="33"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="D820" s="38"/>
+      <c r="D820" s="33"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="D821" s="38"/>
+      <c r="D821" s="33"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="D822" s="38"/>
+      <c r="D822" s="33"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="D823" s="38"/>
+      <c r="D823" s="33"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="D824" s="38"/>
+      <c r="D824" s="33"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="D825" s="38"/>
+      <c r="D825" s="33"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="D826" s="38"/>
+      <c r="D826" s="33"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="D827" s="38"/>
+      <c r="D827" s="33"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="D828" s="38"/>
+      <c r="D828" s="33"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="D829" s="38"/>
+      <c r="D829" s="33"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="D830" s="38"/>
+      <c r="D830" s="33"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="D831" s="38"/>
+      <c r="D831" s="33"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="D832" s="38"/>
+      <c r="D832" s="33"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="D833" s="38"/>
+      <c r="D833" s="33"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="D834" s="38"/>
+      <c r="D834" s="33"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="D835" s="38"/>
+      <c r="D835" s="33"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="D836" s="38"/>
+      <c r="D836" s="33"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="D837" s="38"/>
+      <c r="D837" s="33"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="D838" s="38"/>
+      <c r="D838" s="33"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="D839" s="38"/>
+      <c r="D839" s="33"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="D840" s="38"/>
+      <c r="D840" s="33"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="D841" s="38"/>
+      <c r="D841" s="33"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="D842" s="38"/>
+      <c r="D842" s="33"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="D843" s="38"/>
+      <c r="D843" s="33"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="D844" s="38"/>
+      <c r="D844" s="33"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="D845" s="38"/>
+      <c r="D845" s="33"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="D846" s="38"/>
+      <c r="D846" s="33"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="D847" s="38"/>
+      <c r="D847" s="33"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="D848" s="38"/>
+      <c r="D848" s="33"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="D849" s="38"/>
+      <c r="D849" s="33"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="D850" s="38"/>
+      <c r="D850" s="33"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="D851" s="38"/>
+      <c r="D851" s="33"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="D852" s="38"/>
+      <c r="D852" s="33"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="D853" s="38"/>
+      <c r="D853" s="33"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="D854" s="38"/>
+      <c r="D854" s="33"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="D855" s="38"/>
+      <c r="D855" s="33"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="D856" s="38"/>
+      <c r="D856" s="33"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="D857" s="38"/>
+      <c r="D857" s="33"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="D858" s="38"/>
+      <c r="D858" s="33"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="D859" s="38"/>
+      <c r="D859" s="33"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="D860" s="38"/>
+      <c r="D860" s="33"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="D861" s="38"/>
+      <c r="D861" s="33"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="D862" s="38"/>
+      <c r="D862" s="33"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="D863" s="38"/>
+      <c r="D863" s="33"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="D864" s="38"/>
+      <c r="D864" s="33"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="D865" s="38"/>
+      <c r="D865" s="33"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="D866" s="38"/>
+      <c r="D866" s="33"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="D867" s="38"/>
+      <c r="D867" s="33"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="D868" s="38"/>
+      <c r="D868" s="33"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="D869" s="38"/>
+      <c r="D869" s="33"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="D870" s="38"/>
+      <c r="D870" s="33"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="D871" s="38"/>
+      <c r="D871" s="33"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="D872" s="38"/>
+      <c r="D872" s="33"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="D873" s="38"/>
+      <c r="D873" s="33"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="D874" s="38"/>
+      <c r="D874" s="33"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="D875" s="38"/>
+      <c r="D875" s="33"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="D876" s="38"/>
+      <c r="D876" s="33"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="D877" s="38"/>
+      <c r="D877" s="33"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="D878" s="38"/>
+      <c r="D878" s="33"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="D879" s="38"/>
+      <c r="D879" s="33"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="D880" s="38"/>
+      <c r="D880" s="33"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="D881" s="38"/>
+      <c r="D881" s="33"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="D882" s="38"/>
+      <c r="D882" s="33"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="D883" s="38"/>
+      <c r="D883" s="33"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="D884" s="38"/>
+      <c r="D884" s="33"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="D885" s="38"/>
+      <c r="D885" s="33"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="D886" s="38"/>
+      <c r="D886" s="33"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="D887" s="38"/>
+      <c r="D887" s="33"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="D888" s="38"/>
+      <c r="D888" s="33"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="D889" s="38"/>
+      <c r="D889" s="33"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="D890" s="38"/>
+      <c r="D890" s="33"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="D891" s="38"/>
+      <c r="D891" s="33"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="D892" s="38"/>
+      <c r="D892" s="33"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="D893" s="38"/>
+      <c r="D893" s="33"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="D894" s="38"/>
+      <c r="D894" s="33"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="D895" s="38"/>
+      <c r="D895" s="33"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="D896" s="38"/>
+      <c r="D896" s="33"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="D897" s="38"/>
+      <c r="D897" s="33"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="D898" s="38"/>
+      <c r="D898" s="33"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="D899" s="38"/>
+      <c r="D899" s="33"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="D900" s="38"/>
+      <c r="D900" s="33"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="D901" s="38"/>
+      <c r="D901" s="33"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="D902" s="38"/>
+      <c r="D902" s="33"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="D903" s="38"/>
+      <c r="D903" s="33"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="D904" s="38"/>
+      <c r="D904" s="33"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="D905" s="38"/>
+      <c r="D905" s="33"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="D906" s="38"/>
+      <c r="D906" s="33"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="D907" s="38"/>
+      <c r="D907" s="33"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="D908" s="38"/>
+      <c r="D908" s="33"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="D909" s="38"/>
+      <c r="D909" s="33"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="D910" s="38"/>
+      <c r="D910" s="33"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="D911" s="38"/>
+      <c r="D911" s="33"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="D912" s="38"/>
+      <c r="D912" s="33"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="D913" s="38"/>
+      <c r="D913" s="33"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="D914" s="38"/>
+      <c r="D914" s="33"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="D915" s="38"/>
+      <c r="D915" s="33"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="D916" s="38"/>
+      <c r="D916" s="33"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="D917" s="38"/>
+      <c r="D917" s="33"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="D918" s="38"/>
+      <c r="D918" s="33"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="D919" s="38"/>
+      <c r="D919" s="33"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="D920" s="38"/>
+      <c r="D920" s="33"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="D921" s="38"/>
+      <c r="D921" s="33"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="D922" s="38"/>
+      <c r="D922" s="33"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="D923" s="38"/>
+      <c r="D923" s="33"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="D924" s="38"/>
+      <c r="D924" s="33"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="D925" s="38"/>
+      <c r="D925" s="33"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="D926" s="38"/>
+      <c r="D926" s="33"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="D927" s="38"/>
+      <c r="D927" s="33"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="D928" s="38"/>
+      <c r="D928" s="33"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="D929" s="38"/>
+      <c r="D929" s="33"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="D930" s="38"/>
+      <c r="D930" s="33"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="D931" s="38"/>
+      <c r="D931" s="33"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="D932" s="38"/>
+      <c r="D932" s="33"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="D933" s="38"/>
+      <c r="D933" s="33"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="D934" s="38"/>
+      <c r="D934" s="33"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="D935" s="38"/>
+      <c r="D935" s="33"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="D936" s="38"/>
+      <c r="D936" s="33"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="D937" s="38"/>
+      <c r="D937" s="33"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="D938" s="38"/>
+      <c r="D938" s="33"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="D939" s="38"/>
+      <c r="D939" s="33"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="D940" s="38"/>
+      <c r="D940" s="33"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="D941" s="38"/>
+      <c r="D941" s="33"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="D942" s="38"/>
+      <c r="D942" s="33"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="D943" s="38"/>
+      <c r="D943" s="33"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="D944" s="38"/>
+      <c r="D944" s="33"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="D945" s="38"/>
+      <c r="D945" s="33"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="D946" s="38"/>
+      <c r="D946" s="33"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="D947" s="38"/>
+      <c r="D947" s="33"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="D948" s="38"/>
+      <c r="D948" s="33"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="D949" s="38"/>
+      <c r="D949" s="33"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="D950" s="38"/>
+      <c r="D950" s="33"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="D951" s="38"/>
+      <c r="D951" s="33"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="D952" s="38"/>
+      <c r="D952" s="33"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="D953" s="38"/>
+      <c r="D953" s="33"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="D954" s="38"/>
+      <c r="D954" s="33"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="D955" s="38"/>
+      <c r="D955" s="33"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="D956" s="38"/>
+      <c r="D956" s="33"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="D957" s="38"/>
+      <c r="D957" s="33"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="D958" s="38"/>
+      <c r="D958" s="33"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="D959" s="38"/>
+      <c r="D959" s="33"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="D960" s="38"/>
+      <c r="D960" s="33"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="D961" s="38"/>
+      <c r="D961" s="33"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="D962" s="38"/>
+      <c r="D962" s="33"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="D963" s="38"/>
+      <c r="D963" s="33"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="D964" s="38"/>
+      <c r="D964" s="33"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="D965" s="38"/>
+      <c r="D965" s="33"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="D966" s="38"/>
+      <c r="D966" s="33"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="D967" s="38"/>
+      <c r="D967" s="33"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="D968" s="38"/>
+      <c r="D968" s="33"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
-      <c r="D969" s="38"/>
+      <c r="D969" s="33"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
-      <c r="D970" s="38"/>
+      <c r="D970" s="33"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
-      <c r="D971" s="38"/>
+      <c r="D971" s="33"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
-      <c r="D972" s="38"/>
+      <c r="D972" s="33"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
-      <c r="D973" s="38"/>
+      <c r="D973" s="33"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
-      <c r="D974" s="38"/>
+      <c r="D974" s="33"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
-      <c r="D975" s="38"/>
+      <c r="D975" s="33"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
-      <c r="D976" s="38"/>
+      <c r="D976" s="33"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
-      <c r="D977" s="38"/>
+      <c r="D977" s="33"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
-      <c r="D978" s="38"/>
+      <c r="D978" s="33"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
-      <c r="D979" s="38"/>
+      <c r="D979" s="33"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
-      <c r="D980" s="38"/>
+      <c r="D980" s="33"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
-      <c r="D981" s="38"/>
+      <c r="D981" s="33"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
-      <c r="D982" s="38"/>
+      <c r="D982" s="33"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
-      <c r="D983" s="38"/>
+      <c r="D983" s="33"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
-      <c r="D984" s="38"/>
+      <c r="D984" s="33"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
-      <c r="D985" s="38"/>
+      <c r="D985" s="33"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
-      <c r="D986" s="38"/>
+      <c r="D986" s="33"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
-      <c r="D987" s="38"/>
+      <c r="D987" s="33"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
-      <c r="D988" s="38"/>
+      <c r="D988" s="33"/>
     </row>
     <row r="989" ht="15.75" customHeight="1">
-      <c r="D989" s="38"/>
+      <c r="D989" s="33"/>
     </row>
     <row r="990" ht="15.75" customHeight="1">
-      <c r="D990" s="38"/>
+      <c r="D990" s="33"/>
     </row>
     <row r="991" ht="15.75" customHeight="1">
-      <c r="D991" s="38"/>
+      <c r="D991" s="33"/>
     </row>
     <row r="992" ht="15.75" customHeight="1">
-      <c r="D992" s="38"/>
+      <c r="D992" s="33"/>
     </row>
     <row r="993" ht="15.75" customHeight="1">
-      <c r="D993" s="38"/>
+      <c r="D993" s="33"/>
     </row>
     <row r="994" ht="15.75" customHeight="1">
-      <c r="D994" s="38"/>
+      <c r="D994" s="33"/>
     </row>
     <row r="995" ht="15.75" customHeight="1">
-      <c r="D995" s="38"/>
+      <c r="D995" s="33"/>
     </row>
     <row r="996" ht="15.75" customHeight="1">
-      <c r="D996" s="38"/>
+      <c r="D996" s="33"/>
     </row>
     <row r="997" ht="15.75" customHeight="1">
-      <c r="D997" s="38"/>
+      <c r="D997" s="33"/>
     </row>
     <row r="998" ht="15.75" customHeight="1">
-      <c r="D998" s="38"/>
+      <c r="D998" s="33"/>
     </row>
     <row r="999" ht="15.75" customHeight="1">
-      <c r="D999" s="38"/>
+      <c r="D999" s="33"/>
     </row>
     <row r="1000" ht="15.75" customHeight="1">
-      <c r="D1000" s="38"/>
+      <c r="D1000" s="33"/>
     </row>
     <row r="1001" ht="15.75" customHeight="1">
-      <c r="D1001" s="38"/>
-    </row>
-    <row r="1002" ht="15.75" customHeight="1">
-      <c r="D1002" s="38"/>
-    </row>
-    <row r="1003" ht="15.75" customHeight="1">
-      <c r="D1003" s="38"/>
-    </row>
-    <row r="1004" ht="15.75" customHeight="1">
-      <c r="D1004" s="38"/>
-    </row>
-    <row r="1005" ht="15.75" customHeight="1">
-      <c r="D1005" s="38"/>
-    </row>
-    <row r="1006" ht="15.75" customHeight="1">
-      <c r="D1006" s="38"/>
-    </row>
-    <row r="1007" ht="15.75" customHeight="1">
-      <c r="D1007" s="38"/>
-    </row>
-    <row r="1008" ht="15.75" customHeight="1">
-      <c r="D1008" s="38"/>
-    </row>
-    <row r="1009" ht="15.75" customHeight="1">
-      <c r="D1009" s="38"/>
-    </row>
-    <row r="1010" ht="15.75" customHeight="1">
-      <c r="D1010" s="38"/>
-    </row>
-    <row r="1011" ht="15.75" customHeight="1">
-      <c r="D1011" s="38"/>
+      <c r="D1001" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="B23:B29"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B17:B20"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="B9:B13"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:A35 A38:A1011">
+  <conditionalFormatting sqref="A1:A25 A28:A1001">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/17-Análise dos Eventos para cada Cenário.xlsx
+++ b/17-Análise dos Eventos para cada Cenário.xlsx
@@ -108,7 +108,7 @@
     </r>
   </si>
   <si>
-    <t>Vender
+    <t>Vender 
 Produtos</t>
   </si>
   <si>
@@ -152,11 +152,11 @@
   </si>
   <si>
     <t>Atender 
-Solicitação
+Solicitação 
 de Suporte</t>
   </si>
   <si>
-    <t>Cliente faz solicitação de suporte e informa o número chamado</t>
+    <t>Cliente faz solicitação de suporte</t>
   </si>
   <si>
     <t>Cliente envia resposta do chamado e produto</t>
@@ -183,7 +183,7 @@
     <t>x(10)</t>
   </si>
   <si>
-    <t>Tratar
+    <t>Tratar 
 Devoluções</t>
   </si>
   <si>
@@ -202,7 +202,7 @@
     <t>x(13)</t>
   </si>
   <si>
-    <t>Comprar
+    <t>Comprar 
 Produtos</t>
   </si>
   <si>
@@ -227,7 +227,8 @@
     <t>x(17)</t>
   </si>
   <si>
-    <t>Terceirizar Manutenção
+    <t>Terceirizar 
+Manutenção 
 de Produtos</t>
   </si>
   <si>
@@ -725,7 +726,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.88"/>
+    <col customWidth="1" min="1" max="1" width="13.5"/>
     <col customWidth="1" min="2" max="2" width="3.63"/>
     <col customWidth="1" min="3" max="3" width="3.38"/>
     <col customWidth="1" min="4" max="4" width="66.5"/>

--- a/17-Análise dos Eventos para cada Cenário.xlsx
+++ b/17-Análise dos Eventos para cada Cenário.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\• Pacote de Arquivos - 2021\• Git Hub\projeto-ope\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C67334C-365B-4C78-82C9-74021A3F5BF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07F6E94-6779-41BC-93A4-CE9F8BCCCCDD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="2340" windowWidth="28785" windowHeight="10830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Análise dos Eventos" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,14 @@
   <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjYfafhpks1J2Yl1gbE5DseqZUkAQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miQlo7iY+KzQtFveeZfBFB2Sn9Pkg=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
   <si>
     <t>Externo</t>
   </si>
@@ -160,27 +160,26 @@
     <t>x(5)</t>
   </si>
   <si>
-    <t>Atender 
-Solicitação 
+    <t>Atender Solicitação
 de Suporte</t>
   </si>
   <si>
     <t>Cliente faz solicitação de suporte</t>
   </si>
   <si>
-    <t>Cliente envia resposta do chamado e produto</t>
+    <t>Atendente informa testes, prazo e orçamento</t>
   </si>
   <si>
     <t>x(7)</t>
   </si>
   <si>
-    <t>Atendente informa prazo de solução</t>
-  </si>
-  <si>
-    <t>x(8)</t>
-  </si>
-  <si>
-    <t>Cliente faz solicitação do status do chamado</t>
+    <t>Realizar Manutenção</t>
+  </si>
+  <si>
+    <t>Cliente envia confirmação da manutenção e o produto</t>
+  </si>
+  <si>
+    <t>Atendente informa status do chamado</t>
   </si>
   <si>
     <t>x(9)</t>
@@ -241,7 +240,7 @@
 de Produtos</t>
   </si>
   <si>
-    <t>Gerente envia produto e solicita serviço de manutenção</t>
+    <t>Gerente solicita serviço de manutenção</t>
   </si>
   <si>
     <t>Terceiro envia orçamento e prazo</t>
@@ -344,7 +343,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -461,11 +460,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -530,11 +560,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -546,6 +571,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -562,6 +597,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -779,18 +820,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1001"/>
+  <dimension ref="A1:J998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.625" customWidth="1"/>
+    <col min="1" max="1" width="19.625" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.375" customWidth="1"/>
-    <col min="4" max="4" width="65" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.5" customWidth="1"/>
     <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.375" bestFit="1" customWidth="1"/>
@@ -801,25 +842,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="25"/>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28" t="s">
+      <c r="A1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28" t="s">
+      <c r="F1" s="24"/>
+      <c r="G1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="26"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="29" t="s">
+      <c r="H1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="26" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -846,13 +887,13 @@
       <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="24"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="28" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="4">
@@ -871,8 +912,8 @@
       <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="22"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="10">
         <v>2</v>
       </c>
@@ -889,8 +930,8 @@
       <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="31"/>
-      <c r="B5" s="22"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="4">
         <v>3</v>
       </c>
@@ -907,8 +948,8 @@
       <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
-      <c r="B6" s="22"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="10">
         <v>4</v>
       </c>
@@ -925,8 +966,8 @@
       <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
-      <c r="B7" s="22"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="4">
         <v>5</v>
       </c>
@@ -943,9 +984,9 @@
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="31"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="10">
+      <c r="A8" s="34"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="4">
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -961,13 +1002,13 @@
       <c r="J8" s="19"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="10">
         <v>7</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -983,63 +1024,67 @@
       <c r="J9" s="14"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="31"/>
-      <c r="B10" s="22"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="4">
         <v>8</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="15"/>
       <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="20"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="31"/>
-      <c r="B11" s="22"/>
+      <c r="A11" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>13</v>
+      </c>
       <c r="C11" s="10">
         <v>9</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="15" t="s">
         <v>31</v>
       </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="15"/>
       <c r="H11" s="13"/>
       <c r="I11" s="15"/>
       <c r="J11" s="20"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="31"/>
-      <c r="B12" s="22"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="4">
         <v>10</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="7"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="15"/>
       <c r="H12" s="13"/>
       <c r="I12" s="15"/>
       <c r="J12" s="20"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="31"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="10">
+      <c r="A13" s="38"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="4">
         <v>11</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -1055,13 +1100,13 @@
       <c r="J13" s="20"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="10">
         <v>12</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -1077,9 +1122,9 @@
       <c r="J14" s="20"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="10">
+      <c r="A15" s="37"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="4">
         <v>13</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -1095,9 +1140,9 @@
       <c r="J15" s="20"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="34"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="4">
+      <c r="A16" s="37"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="10">
         <v>14</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -1113,10 +1158,10 @@
       <c r="J16" s="20"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="28" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="4">
@@ -1135,9 +1180,9 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="34"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="10">
+      <c r="A18" s="37"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="4">
         <v>16</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -1153,9 +1198,9 @@
       <c r="J18" s="20"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="34"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="4">
+      <c r="A19" s="37"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="10">
         <v>17</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -1171,9 +1216,9 @@
       <c r="J19" s="14"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="34"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="10">
+      <c r="A20" s="37"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="4">
         <v>18</v>
       </c>
       <c r="D20" s="5" t="s">
@@ -1189,13 +1234,13 @@
       <c r="J20" s="14"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="10">
         <v>19</v>
       </c>
       <c r="D21" s="5" t="s">
@@ -1211,9 +1256,9 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="34"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="10">
+      <c r="A22" s="37"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="4">
         <v>20</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -1229,8 +1274,8 @@
       <c r="J22" s="20"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="34"/>
-      <c r="B23" s="22"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="4">
         <v>21</v>
       </c>
@@ -1247,8 +1292,8 @@
       <c r="J23" s="14"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="34"/>
-      <c r="B24" s="22"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="10">
         <v>22</v>
       </c>
@@ -1265,8 +1310,8 @@
       <c r="J24" s="14"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="35"/>
-      <c r="B25" s="24"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="4">
         <v>23</v>
       </c>
@@ -4201,33 +4246,26 @@
     <row r="998" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D998" s="21"/>
     </row>
-    <row r="999" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D999" s="21"/>
-    </row>
-    <row r="1000" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1000" s="21"/>
-    </row>
-    <row r="1001" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1001" s="21"/>
-    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B17:B20"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="B3:B8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B9:B13"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:A25 A28:A1001">
+  <conditionalFormatting sqref="A1:A25 A28:A998">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/17-Análise dos Eventos para cada Cenário.xlsx
+++ b/17-Análise dos Eventos para cada Cenário.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\• Pacote de Arquivos - 2021\• Git Hub\projeto-ope\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38642879-D7B0-4C1B-B3E0-66E4179A7BAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637A0ABF-99BB-4ECF-A88D-F4C127CA1DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -560,6 +560,37 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -571,39 +602,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -823,12 +823,12 @@
   <dimension ref="A1:J999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="40" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="22" customWidth="1"/>
     <col min="2" max="2" width="3.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.375" customWidth="1"/>
     <col min="4" max="4" width="65" bestFit="1" customWidth="1"/>
@@ -842,20 +842,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="22"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25" t="s">
+      <c r="A1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25" t="s">
+      <c r="F1" s="37"/>
+      <c r="G1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="26" t="s">
+      <c r="H1" s="36"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="39" t="s">
         <v>2</v>
       </c>
     </row>
@@ -887,13 +887,13 @@
       <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="27"/>
+      <c r="J2" s="28"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="26" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="4">
@@ -912,8 +912,8 @@
       <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="34"/>
-      <c r="B4" s="29"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="10">
         <v>2</v>
       </c>
@@ -930,8 +930,8 @@
       <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="34"/>
-      <c r="B5" s="29"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="4">
         <v>3</v>
       </c>
@@ -948,8 +948,8 @@
       <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="34"/>
-      <c r="B6" s="29"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="10">
         <v>4</v>
       </c>
@@ -966,8 +966,8 @@
       <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="34"/>
-      <c r="B7" s="29"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="4">
         <v>5</v>
       </c>
@@ -984,8 +984,8 @@
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="34"/>
-      <c r="B8" s="29"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="10">
         <v>6</v>
       </c>
@@ -1002,8 +1002,8 @@
       <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="34"/>
-      <c r="B9" s="27"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="10">
         <v>7</v>
       </c>
@@ -1020,10 +1020,10 @@
       <c r="J9" s="19"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="26" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="4">
@@ -1042,8 +1042,8 @@
       <c r="J10" s="14"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="34"/>
-      <c r="B11" s="29"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="10">
         <v>9</v>
       </c>
@@ -1060,10 +1060,10 @@
       <c r="J11" s="20"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="31" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="4">
@@ -1082,26 +1082,26 @@
       <c r="J12" s="20"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="37"/>
-      <c r="B13" s="31"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="10">
         <v>11</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="F13" s="11"/>
-      <c r="G13" s="15" t="s">
-        <v>35</v>
-      </c>
+      <c r="G13" s="15"/>
       <c r="H13" s="13"/>
       <c r="I13" s="15"/>
       <c r="J13" s="20"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="38"/>
-      <c r="B14" s="32"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="4">
         <v>12</v>
       </c>
@@ -1118,10 +1118,10 @@
       <c r="J14" s="20"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="26" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="10">
@@ -1140,8 +1140,8 @@
       <c r="J15" s="20"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="37"/>
-      <c r="B16" s="29"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="10">
         <v>14</v>
       </c>
@@ -1158,8 +1158,8 @@
       <c r="J16" s="20"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="37"/>
-      <c r="B17" s="27"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="4">
         <v>15</v>
       </c>
@@ -1176,10 +1176,10 @@
       <c r="J17" s="20"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="26" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="10">
@@ -1198,8 +1198,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="37"/>
-      <c r="B19" s="29"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="4">
         <v>17</v>
       </c>
@@ -1216,8 +1216,8 @@
       <c r="J19" s="20"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="37"/>
-      <c r="B20" s="29"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="10">
         <v>18</v>
       </c>
@@ -1234,8 +1234,8 @@
       <c r="J20" s="14"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="37"/>
-      <c r="B21" s="29"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="4">
         <v>19</v>
       </c>
@@ -1252,10 +1252,10 @@
       <c r="J21" s="14"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="26" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="10">
@@ -1274,8 +1274,8 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="37"/>
-      <c r="B23" s="29"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="10">
         <v>21</v>
       </c>
@@ -1292,8 +1292,8 @@
       <c r="J23" s="20"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="37"/>
-      <c r="B24" s="29"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="27"/>
       <c r="C24" s="4">
         <v>22</v>
       </c>
@@ -1310,8 +1310,8 @@
       <c r="J24" s="14"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="37"/>
-      <c r="B25" s="29"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="10">
         <v>23</v>
       </c>
@@ -1328,8 +1328,8 @@
       <c r="J25" s="14"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="38"/>
-      <c r="B26" s="27"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="4">
         <v>24</v>
       </c>
@@ -4266,6 +4266,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="A3:A9"/>
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="A10:A11"/>
@@ -4275,13 +4282,6 @@
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="A3:A9"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A26 A29:A999">
     <cfRule type="colorScale" priority="1">
